--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -165,55 +165,55 @@
     <t>StageProbabilityProbability</t>
   </si>
   <si>
+    <t>Vijay1234</t>
+  </si>
+  <si>
+    <t>Budget Price</t>
+  </si>
+  <si>
+    <t>Automation Test Description</t>
+  </si>
+  <si>
+    <t>5f</t>
+  </si>
+  <si>
+    <t>2f</t>
+  </si>
+  <si>
+    <t>06114080</t>
+  </si>
+  <si>
+    <t>KOFCOL TRB 201</t>
+  </si>
+  <si>
+    <t>AU21 - Sydney Region</t>
+  </si>
+  <si>
+    <t>AU22 - Newcastle Region</t>
+  </si>
+  <si>
+    <t>AustraliaRopes_For Automation</t>
+  </si>
+  <si>
+    <t>07006025</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>Québec City</t>
+  </si>
+  <si>
+    <t>SeismicArea</t>
+  </si>
+  <si>
+    <t>WeeklyTeamCostforZone</t>
+  </si>
+  <si>
+    <t>WeeklyTeamCostforRoomandBoard</t>
+  </si>
+  <si>
     <t>s.vijay@kone.com.qa</t>
-  </si>
-  <si>
-    <t>Vijay1234</t>
-  </si>
-  <si>
-    <t>Budget Price</t>
-  </si>
-  <si>
-    <t>Automation Test Description</t>
-  </si>
-  <si>
-    <t>5f</t>
-  </si>
-  <si>
-    <t>2f</t>
-  </si>
-  <si>
-    <t>06114080</t>
-  </si>
-  <si>
-    <t>KOFCOL TRB 201</t>
-  </si>
-  <si>
-    <t>AU21 - Sydney Region</t>
-  </si>
-  <si>
-    <t>AU22 - Newcastle Region</t>
-  </si>
-  <si>
-    <t>AustraliaRopes_For Automation</t>
-  </si>
-  <si>
-    <t>07006025</t>
-  </si>
-  <si>
-    <t>Montréal</t>
-  </si>
-  <si>
-    <t>Québec City</t>
-  </si>
-  <si>
-    <t>SeismicArea</t>
-  </si>
-  <si>
-    <t>WeeklyTeamCostforZone</t>
-  </si>
-  <si>
-    <t>WeeklyTeamCostforRoomandBoard</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>11</v>
@@ -764,16 +764,16 @@
         <v>2001</v>
       </c>
       <c r="Q2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="S2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="U2" s="3">
         <v>22</v>
@@ -912,7 +912,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4">
         <v>1813</v>
@@ -927,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="I2" s="4">
         <v>13012004</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -957,16 +957,16 @@
         <v>2001</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="S2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="U2" s="3">
         <v>22</v>
@@ -1064,13 +1064,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -1132,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="I2" s="4">
         <v>2</v>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>11</v>
@@ -1177,10 +1177,10 @@
         <v>41</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="X2" s="3">
         <v>22</v>
@@ -1223,9 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1251,10 +1249,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
   <si>
     <t>KOFCOL TRB SFA</t>
   </si>
@@ -54,12 +54,6 @@
     <t>ITEfactor</t>
   </si>
   <si>
-    <t>CKE_Automation_Remodelled</t>
-  </si>
-  <si>
-    <t>KOFCOL TRB CKE</t>
-  </si>
-  <si>
     <t>N194322</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>CH</t>
   </si>
   <si>
-    <t>52927.36f</t>
-  </si>
-  <si>
     <t>1.5f</t>
   </si>
   <si>
@@ -214,6 +205,12 @@
   </si>
   <si>
     <t>s.vijay@kone.com.qa</t>
+  </si>
+  <si>
+    <t>KOFCOL TRB CKQ</t>
+  </si>
+  <si>
+    <t>Automation_CKEHydromod</t>
   </si>
 </sst>
 </file>
@@ -621,7 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -651,72 +650,72 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -728,7 +727,7 @@
         <v>10503512</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -740,10 +739,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>5</v>
@@ -764,16 +763,16 @@
         <v>2001</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U2" s="3">
         <v>22</v>
@@ -782,6 +781,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I2" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -844,75 +846,75 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>1813</v>
@@ -921,25 +923,25 @@
         <v>30493722</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I2" s="4">
         <v>13012004</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -957,16 +959,16 @@
         <v>2001</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U2" s="3">
         <v>22</v>
@@ -1006,9 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1040,84 +1040,84 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -1126,16 +1126,16 @@
         <v>20291426</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I2" s="4">
         <v>2</v>
@@ -1144,16 +1144,16 @@
         <v>1</v>
       </c>
       <c r="K2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
@@ -1171,16 +1171,16 @@
         <v>2001</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X2" s="3">
         <v>22</v>
@@ -1223,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1235,30 +1235,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1303,53 +1303,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>1713</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1723</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -1008,7 +1008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1223,7 +1225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>KOFCOL TRB SFA</t>
   </si>
@@ -211,6 +211,27 @@
   </si>
   <si>
     <t>Automation_CKEHydromod</t>
+  </si>
+  <si>
+    <t>EquipmentID_2</t>
+  </si>
+  <si>
+    <t>TemplateName2</t>
+  </si>
+  <si>
+    <t>Automation_Template_forEscalator</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>Automation_GroupName</t>
+  </si>
+  <si>
+    <t>EquipmentinService_Escalator</t>
+  </si>
+  <si>
+    <t>EIS Escalator</t>
   </si>
 </sst>
 </file>
@@ -616,11 +637,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -628,27 +647,31 @@
     <col min="2" max="2" width="13.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6328125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="5"/>
+    <col min="5" max="5" width="11.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.08984375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6328125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -662,58 +685,70 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -726,55 +761,67 @@
       <c r="D2" s="4">
         <v>10503512</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>11234846</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4">
+      <c r="N2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="4">
+      <c r="Q2" s="4">
         <v>3</v>
       </c>
-      <c r="N2" s="4">
+      <c r="R2" s="4">
         <v>6</v>
       </c>
-      <c r="O2" s="4">
+      <c r="S2" s="4">
         <v>10</v>
       </c>
-      <c r="P2" s="4">
+      <c r="T2" s="4">
         <v>2001</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="3">
+      <c r="Y2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -782,7 +829,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I2" numberStoredAsText="1"/>
+    <ignoredError sqref="J2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -803,7 +850,7 @@
           <x14:formula1>
             <xm:f>'-na-'!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1225,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>KOFCOL TRB SFA</t>
   </si>
@@ -232,6 +232,27 @@
   </si>
   <si>
     <t>EIS Escalator</t>
+  </si>
+  <si>
+    <t>4f</t>
+  </si>
+  <si>
+    <t>changeRegionalDiscount</t>
+  </si>
+  <si>
+    <t>changeITEfactor</t>
+  </si>
+  <si>
+    <t>2.75f</t>
+  </si>
+  <si>
+    <t>-5f</t>
+  </si>
+  <si>
+    <t>changeSupervisor</t>
+  </si>
+  <si>
+    <t>06151495</t>
   </si>
 </sst>
 </file>
@@ -303,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,6 +344,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,25 +681,28 @@
     <col min="8" max="8" width="8.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.08984375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6328125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7265625" style="5"/>
+    <col min="11" max="11" width="13.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.08984375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6328125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="6.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -703,52 +734,61 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -779,49 +819,58 @@
       <c r="J2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="10">
         <v>0</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="10">
         <v>3</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="10">
         <v>6</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="10">
         <v>10</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="10">
         <v>2001</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="V2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="AB2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -829,7 +878,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2" numberStoredAsText="1"/>
+    <ignoredError sqref="J2:K2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -862,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>KOFCOL TRB SFA</t>
   </si>
@@ -253,6 +253,45 @@
   </si>
   <si>
     <t>06151495</t>
+  </si>
+  <si>
+    <t>LabourRate</t>
+  </si>
+  <si>
+    <t>61.9</t>
+  </si>
+  <si>
+    <t>changeLabourRate</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>2.47f</t>
+  </si>
+  <si>
+    <t>73.68</t>
+  </si>
+  <si>
+    <t>1.75f</t>
+  </si>
+  <si>
+    <t>6.7f</t>
+  </si>
+  <si>
+    <t>87.42</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>13010164</t>
+  </si>
+  <si>
+    <t>07003009</t>
   </si>
 </sst>
 </file>
@@ -665,9 +704,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -696,13 +735,15 @@
     <col min="23" max="23" width="17.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.7265625" style="5"/>
+    <col min="26" max="26" width="12" style="5" customWidth="1"/>
+    <col min="27" max="27" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -779,16 +820,22 @@
         <v>70</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -864,13 +911,19 @@
       <c r="Y2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AD2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -878,7 +931,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:K2" numberStoredAsText="1"/>
+    <ignoredError sqref="J2:K2 Z2:AA2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -909,38 +962,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" style="5" customWidth="1"/>
+    <col min="8" max="9" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6328125" style="5" customWidth="1"/>
     <col min="11" max="11" width="22.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.26953125" style="5" customWidth="1"/>
-    <col min="13" max="14" width="16.6328125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9" style="5" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="7" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="5"/>
+    <col min="22" max="22" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7265625" style="5"/>
+    <col min="27" max="27" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -954,58 +1013,85 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1018,61 +1104,91 @@
       <c r="D2" s="4">
         <v>30493722</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>11234846</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>13012004</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="4">
+      <c r="O2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="10">
         <v>0</v>
       </c>
-      <c r="M2" s="4">
+      <c r="R2" s="10">
         <v>3</v>
       </c>
-      <c r="N2" s="4">
+      <c r="S2" s="10">
         <v>6</v>
       </c>
-      <c r="O2" s="4">
+      <c r="T2" s="10">
         <v>10</v>
       </c>
-      <c r="P2" s="4">
+      <c r="U2" s="10">
         <v>2001</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="3">
+      <c r="AD2" s="3">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Z2:AA2 K2" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1080,7 +1196,7 @@
           <x14:formula1>
             <xm:f>'-na-'!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1102,41 +1218,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="5"/>
+    <col min="9" max="10" width="13.6328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7265625" style="5"/>
+    <col min="30" max="30" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1150,67 +1271,94 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1223,64 +1371,91 @@
       <c r="D2" s="4">
         <v>20291426</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>20291427</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="4">
+      <c r="R2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="10">
         <v>0</v>
       </c>
-      <c r="P2" s="4">
+      <c r="U2" s="10">
         <v>3</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="V2" s="10">
         <v>6</v>
       </c>
-      <c r="R2" s="4">
+      <c r="W2" s="10">
         <v>10</v>
       </c>
-      <c r="S2" s="4">
+      <c r="X2" s="10">
         <v>2001</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="Y2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AB2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="3">
+      <c r="AG2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1288,7 +1463,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L2" numberStoredAsText="1"/>
+    <ignoredError sqref="M2:N2 AC2:AD2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1309,7 +1484,7 @@
           <x14:formula1>
             <xm:f>'-na-'!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
   <si>
     <t>KOFCOL TRB SFA</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>EIS Escalator</t>
-  </si>
-  <si>
-    <t>4f</t>
   </si>
   <si>
     <t>changeRegionalDiscount</t>
@@ -706,7 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -775,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -811,19 +810,19 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>39</v>
@@ -867,7 +866,7 @@
         <v>47</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
@@ -900,22 +899,22 @@
         <v>2001</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>43</v>
@@ -1031,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -1067,19 +1066,19 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>39</v>
@@ -1123,7 +1122,7 @@
         <v>13012004</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
@@ -1156,22 +1155,22 @@
         <v>2001</v>
       </c>
       <c r="V2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>43</v>
@@ -1220,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1298,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>17</v>
@@ -1334,19 +1333,19 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>39</v>
@@ -1399,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>9</v>
@@ -1435,19 +1434,19 @@
         <v>45</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>43</v>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>KOFCOL TRB SFA</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>07003009</t>
+  </si>
+  <si>
+    <t>4.18f</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
         <v>2001</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>71</v>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>KOFCOL TRB SFA</t>
   </si>
@@ -207,91 +207,118 @@
     <t>s.vijay@kone.com.qa</t>
   </si>
   <si>
+    <t>Automation_CKEHydromod</t>
+  </si>
+  <si>
+    <t>EquipmentID_2</t>
+  </si>
+  <si>
+    <t>TemplateName2</t>
+  </si>
+  <si>
+    <t>Automation_Template_forEscalator</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>Automation_GroupName</t>
+  </si>
+  <si>
+    <t>EquipmentinService_Escalator</t>
+  </si>
+  <si>
+    <t>EIS Escalator</t>
+  </si>
+  <si>
+    <t>changeRegionalDiscount</t>
+  </si>
+  <si>
+    <t>changeITEfactor</t>
+  </si>
+  <si>
+    <t>changeSupervisor</t>
+  </si>
+  <si>
+    <t>06151495</t>
+  </si>
+  <si>
+    <t>LabourRate</t>
+  </si>
+  <si>
+    <t>61.9</t>
+  </si>
+  <si>
+    <t>changeLabourRate</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>2.47f</t>
+  </si>
+  <si>
+    <t>73.68</t>
+  </si>
+  <si>
+    <t>1.75f</t>
+  </si>
+  <si>
+    <t>6.7f</t>
+  </si>
+  <si>
+    <t>87.42</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>13010164</t>
+  </si>
+  <si>
+    <t>07003009</t>
+  </si>
+  <si>
+    <t>-4f</t>
+  </si>
+  <si>
+    <t>RegionalDiscount_MultipleEqup</t>
+  </si>
+  <si>
+    <t>changeRegionalDiscount_MultipleEqup</t>
+  </si>
+  <si>
+    <t>4f</t>
+  </si>
+  <si>
+    <t>-5f</t>
+  </si>
+  <si>
+    <t>ITEfactor_MultipleEqup</t>
+  </si>
+  <si>
+    <t>changeITEfactor_MultipleEqup</t>
+  </si>
+  <si>
+    <t>LabourRate_MultipleEqup</t>
+  </si>
+  <si>
+    <t>changeLabourRate__MultipleEqup</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>KOFCOL TRB CKQ</t>
-  </si>
-  <si>
-    <t>Automation_CKEHydromod</t>
-  </si>
-  <si>
-    <t>EquipmentID_2</t>
-  </si>
-  <si>
-    <t>TemplateName2</t>
-  </si>
-  <si>
-    <t>Automation_Template_forEscalator</t>
-  </si>
-  <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>Automation_GroupName</t>
-  </si>
-  <si>
-    <t>EquipmentinService_Escalator</t>
-  </si>
-  <si>
-    <t>EIS Escalator</t>
-  </si>
-  <si>
-    <t>changeRegionalDiscount</t>
-  </si>
-  <si>
-    <t>changeITEfactor</t>
-  </si>
-  <si>
-    <t>2.75f</t>
-  </si>
-  <si>
-    <t>-5f</t>
-  </si>
-  <si>
-    <t>changeSupervisor</t>
-  </si>
-  <si>
-    <t>06151495</t>
-  </si>
-  <si>
-    <t>LabourRate</t>
-  </si>
-  <si>
-    <t>61.9</t>
-  </si>
-  <si>
-    <t>changeLabourRate</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>0f</t>
-  </si>
-  <si>
-    <t>2.47f</t>
-  </si>
-  <si>
-    <t>73.68</t>
-  </si>
-  <si>
-    <t>1.75f</t>
-  </si>
-  <si>
-    <t>6.7f</t>
-  </si>
-  <si>
-    <t>87.42</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>13010164</t>
-  </si>
-  <si>
-    <t>07003009</t>
-  </si>
-  <si>
-    <t>4.18f</t>
   </si>
 </sst>
 </file>
@@ -704,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -735,17 +762,23 @@
     <col min="21" max="21" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" style="5" customWidth="1"/>
-    <col min="27" max="27" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="5"/>
+    <col min="24" max="24" width="23.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" style="5" customWidth="1"/>
+    <col min="31" max="31" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -759,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
@@ -777,22 +810,22 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>19</v>
@@ -813,31 +846,49 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AB1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -869,22 +920,22 @@
         <v>47</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="10">
         <v>0</v>
@@ -902,30 +953,48 @@
         <v>2001</v>
       </c>
       <c r="V2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="AA2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AJ2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -933,7 +1002,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:K2 Z2:AA2" numberStoredAsText="1"/>
+    <ignoredError sqref="J2:K2 AD2:AG2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1015,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
@@ -1033,22 +1102,22 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>19</v>
@@ -1069,19 +1138,19 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>39</v>
@@ -1125,22 +1194,22 @@
         <v>13012004</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="10">
         <v>0</v>
@@ -1158,22 +1227,22 @@
         <v>2001</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>43</v>
@@ -1222,7 +1291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1273,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
@@ -1300,22 +1371,22 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>19</v>
@@ -1336,19 +1407,19 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>39</v>
@@ -1365,7 +1436,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -1401,22 +1472,22 @@
         <v>52</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T2" s="10">
         <v>0</v>
@@ -1437,19 +1508,19 @@
         <v>45</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AB2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>43</v>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -733,9 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1569,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1606,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -1604,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -207,118 +207,118 @@
     <t>s.vijay@kone.com.qa</t>
   </si>
   <si>
+    <t>EquipmentID_2</t>
+  </si>
+  <si>
+    <t>TemplateName2</t>
+  </si>
+  <si>
+    <t>Automation_Template_forEscalator</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>Automation_GroupName</t>
+  </si>
+  <si>
+    <t>EquipmentinService_Escalator</t>
+  </si>
+  <si>
+    <t>EIS Escalator</t>
+  </si>
+  <si>
+    <t>changeRegionalDiscount</t>
+  </si>
+  <si>
+    <t>changeITEfactor</t>
+  </si>
+  <si>
+    <t>changeSupervisor</t>
+  </si>
+  <si>
+    <t>06151495</t>
+  </si>
+  <si>
+    <t>LabourRate</t>
+  </si>
+  <si>
+    <t>61.9</t>
+  </si>
+  <si>
+    <t>changeLabourRate</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>2.47f</t>
+  </si>
+  <si>
+    <t>73.68</t>
+  </si>
+  <si>
+    <t>1.75f</t>
+  </si>
+  <si>
+    <t>6.7f</t>
+  </si>
+  <si>
+    <t>87.42</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>13010164</t>
+  </si>
+  <si>
+    <t>07003009</t>
+  </si>
+  <si>
+    <t>-4f</t>
+  </si>
+  <si>
+    <t>RegionalDiscount_MultipleEqup</t>
+  </si>
+  <si>
+    <t>changeRegionalDiscount_MultipleEqup</t>
+  </si>
+  <si>
+    <t>4f</t>
+  </si>
+  <si>
+    <t>-5f</t>
+  </si>
+  <si>
+    <t>ITEfactor_MultipleEqup</t>
+  </si>
+  <si>
+    <t>changeITEfactor_MultipleEqup</t>
+  </si>
+  <si>
+    <t>LabourRate_MultipleEqup</t>
+  </si>
+  <si>
+    <t>changeLabourRate__MultipleEqup</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>KOFCOL TRB CKQ</t>
+  </si>
+  <si>
     <t>Automation_CKEHydromod</t>
-  </si>
-  <si>
-    <t>EquipmentID_2</t>
-  </si>
-  <si>
-    <t>TemplateName2</t>
-  </si>
-  <si>
-    <t>Automation_Template_forEscalator</t>
-  </si>
-  <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>Automation_GroupName</t>
-  </si>
-  <si>
-    <t>EquipmentinService_Escalator</t>
-  </si>
-  <si>
-    <t>EIS Escalator</t>
-  </si>
-  <si>
-    <t>changeRegionalDiscount</t>
-  </si>
-  <si>
-    <t>changeITEfactor</t>
-  </si>
-  <si>
-    <t>changeSupervisor</t>
-  </si>
-  <si>
-    <t>06151495</t>
-  </si>
-  <si>
-    <t>LabourRate</t>
-  </si>
-  <si>
-    <t>61.9</t>
-  </si>
-  <si>
-    <t>changeLabourRate</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>0f</t>
-  </si>
-  <si>
-    <t>2.47f</t>
-  </si>
-  <si>
-    <t>73.68</t>
-  </si>
-  <si>
-    <t>1.75f</t>
-  </si>
-  <si>
-    <t>6.7f</t>
-  </si>
-  <si>
-    <t>87.42</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>13010164</t>
-  </si>
-  <si>
-    <t>07003009</t>
-  </si>
-  <si>
-    <t>-4f</t>
-  </si>
-  <si>
-    <t>RegionalDiscount_MultipleEqup</t>
-  </si>
-  <si>
-    <t>changeRegionalDiscount_MultipleEqup</t>
-  </si>
-  <si>
-    <t>4f</t>
-  </si>
-  <si>
-    <t>-5f</t>
-  </si>
-  <si>
-    <t>ITEfactor_MultipleEqup</t>
-  </si>
-  <si>
-    <t>changeITEfactor_MultipleEqup</t>
-  </si>
-  <si>
-    <t>LabourRate_MultipleEqup</t>
-  </si>
-  <si>
-    <t>changeLabourRate__MultipleEqup</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>3f</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>KOFCOL TRB CKQ</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
@@ -808,22 +808,22 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>19</v>
@@ -844,37 +844,37 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>39</v>
@@ -918,22 +918,22 @@
         <v>47</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="10">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>45</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>46</v>
@@ -969,22 +969,22 @@
         <v>46</v>
       </c>
       <c r="AB2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>43</v>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
@@ -1100,22 +1100,22 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>19</v>
@@ -1136,19 +1136,19 @@
         <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>39</v>
@@ -1192,22 +1192,22 @@
         <v>13012004</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="10">
         <v>0</v>
@@ -1225,22 +1225,22 @@
         <v>2001</v>
       </c>
       <c r="V2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>43</v>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1342,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>32</v>
@@ -1369,22 +1369,22 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>19</v>
@@ -1405,19 +1405,19 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>39</v>
@@ -1434,7 +1434,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -1470,22 +1470,22 @@
         <v>52</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T2" s="10">
         <v>0</v>
@@ -1506,19 +1506,19 @@
         <v>45</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>43</v>
@@ -1567,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
-  <si>
-    <t>KOFCOL TRB SFA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
   <si>
     <t>A10137873</t>
   </si>
@@ -45,9 +42,6 @@
     <t>Supervisor</t>
   </si>
   <si>
-    <t>Automation_Template_002</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>CH</t>
   </si>
   <si>
-    <t>1.5f</t>
-  </si>
-  <si>
     <t>StageProbabilityStage</t>
   </si>
   <si>
@@ -165,18 +156,9 @@
     <t>Automation Test Description</t>
   </si>
   <si>
-    <t>5f</t>
-  </si>
-  <si>
-    <t>2f</t>
-  </si>
-  <si>
     <t>06114080</t>
   </si>
   <si>
-    <t>KOFCOL TRB 201</t>
-  </si>
-  <si>
     <t>AU21 - Sydney Region</t>
   </si>
   <si>
@@ -204,9 +186,6 @@
     <t>WeeklyTeamCostforRoomandBoard</t>
   </si>
   <si>
-    <t>s.vijay@kone.com.qa</t>
-  </si>
-  <si>
     <t>EquipmentID_2</t>
   </si>
   <si>
@@ -243,15 +222,9 @@
     <t>LabourRate</t>
   </si>
   <si>
-    <t>61.9</t>
-  </si>
-  <si>
     <t>changeLabourRate</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>0f</t>
   </si>
   <si>
@@ -261,39 +234,21 @@
     <t>73.68</t>
   </si>
   <si>
-    <t>1.75f</t>
-  </si>
-  <si>
     <t>6.7f</t>
   </si>
   <si>
-    <t>87.42</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>13010164</t>
   </si>
   <si>
     <t>07003009</t>
   </si>
   <si>
-    <t>-4f</t>
-  </si>
-  <si>
     <t>RegionalDiscount_MultipleEqup</t>
   </si>
   <si>
     <t>changeRegionalDiscount_MultipleEqup</t>
   </si>
   <si>
-    <t>4f</t>
-  </si>
-  <si>
-    <t>-5f</t>
-  </si>
-  <si>
     <t>ITEfactor_MultipleEqup</t>
   </si>
   <si>
@@ -306,26 +261,86 @@
     <t>changeLabourRate__MultipleEqup</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>3f</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>KOFCOL TRB CKQ</t>
-  </si>
-  <si>
-    <t>Automation_CKEHydromod</t>
+    <t>s.vijay@kone.com.qap</t>
+  </si>
+  <si>
+    <t>SalesOffice_Canada</t>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+  </si>
+  <si>
+    <t>1f</t>
+  </si>
+  <si>
+    <t>95.48</t>
+  </si>
+  <si>
+    <t>AUTOMATION TRB SFA</t>
+  </si>
+  <si>
+    <t>AutomationSFA</t>
+  </si>
+  <si>
+    <t>0.92f</t>
+  </si>
+  <si>
+    <t>59.1</t>
+  </si>
+  <si>
+    <t>AUTOMATION TRB CKQ</t>
+  </si>
+  <si>
+    <t>AUTOMATION TRB 201</t>
+  </si>
+  <si>
+    <t>AutomationCKQ</t>
+  </si>
+  <si>
+    <t>84.87</t>
+  </si>
+  <si>
+    <t>isFirstMaintenancetoEdit</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>isFirstMaintenancetoEdittoChange_1</t>
+  </si>
+  <si>
+    <t>isFirstMaintenancetoEdittoChange_2</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +358,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -390,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,7 +432,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,6 +445,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,14 +763,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" style="5" bestFit="1" customWidth="1"/>
@@ -753,145 +785,157 @@
     <col min="14" max="14" width="21.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.08984375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6328125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="6.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" style="5" customWidth="1"/>
-    <col min="31" max="31" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.7265625" style="5"/>
+    <col min="17" max="17" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.453125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="26.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6328125" style="10" customWidth="1"/>
+    <col min="23" max="23" width="6.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" style="5" customWidth="1"/>
+    <col min="34" max="34" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -903,96 +947,105 @@
         <v>11234846</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
         <v>3</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="V2" s="9">
+        <v>6</v>
+      </c>
+      <c r="W2" s="9">
+        <v>10</v>
+      </c>
+      <c r="X2" s="9">
+        <v>2001</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10">
-        <v>3</v>
-      </c>
-      <c r="S2" s="10">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10">
-        <v>10</v>
-      </c>
-      <c r="U2" s="10">
-        <v>2001</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ2" s="3">
+      <c r="Z2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1000,7 +1053,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:K2 AD2:AG2" numberStoredAsText="1"/>
+    <ignoredError sqref="J2:K2 AG2:AJ2 Q2:S2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1031,14 +1084,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="W1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" customWidth="1"/>
@@ -1052,120 +1105,132 @@
     <col min="14" max="14" width="22.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7265625" style="5"/>
-    <col min="27" max="27" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="5"/>
+    <col min="17" max="17" width="18" style="5" customWidth="1"/>
+    <col min="18" max="18" width="26.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.453125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7265625" style="5"/>
+    <col min="30" max="30" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>41</v>
+      <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="C2" s="4">
         <v>1813</v>
@@ -1177,78 +1242,87 @@
         <v>11234846</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4">
         <v>13012004</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>81</v>
+      <c r="K2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
+        <v>3</v>
+      </c>
+      <c r="V2" s="9">
+        <v>6</v>
+      </c>
+      <c r="W2" s="9">
+        <v>10</v>
+      </c>
+      <c r="X2" s="9">
+        <v>2001</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10">
-        <v>3</v>
-      </c>
-      <c r="S2" s="10">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10">
-        <v>10</v>
-      </c>
-      <c r="U2" s="10">
-        <v>2001</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="3">
+      <c r="Z2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1256,7 +1330,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Z2:AA2 K2" numberStoredAsText="1"/>
+    <ignoredError sqref="AC2:AD2 K2 Q2:S2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1287,16 +1361,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19" style="5" bestFit="1" customWidth="1"/>
@@ -1312,129 +1384,141 @@
     <col min="17" max="17" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7265625" style="5"/>
-    <col min="30" max="30" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.7265625" style="5"/>
+    <col min="20" max="20" width="18" style="5" customWidth="1"/>
+    <col min="21" max="21" width="26.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.453125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7265625" style="5"/>
+    <col min="33" max="33" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>41</v>
+      <c r="AH1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -1446,16 +1530,16 @@
         <v>20291427</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="J2" s="4">
         <v>2</v>
@@ -1466,67 +1550,76 @@
       <c r="L2" s="4">
         <v>1</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>82</v>
+      <c r="M2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>2001</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0</v>
-      </c>
-      <c r="U2" s="10">
-        <v>3</v>
-      </c>
-      <c r="V2" s="10">
-        <v>6</v>
-      </c>
-      <c r="W2" s="10">
-        <v>10</v>
-      </c>
-      <c r="X2" s="10">
-        <v>2001</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" s="3">
+      <c r="AE2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1534,11 +1627,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M2:N2 AC2:AD2" numberStoredAsText="1"/>
+    <ignoredError sqref="M2:N2 AF2:AG2 T2:V2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'-na-'!$C$2:$C$3</xm:f>
@@ -1556,6 +1649,12 @@
             <xm:f>'-na-'!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'-na-'!$F$2:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:I2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1581,34 +1680,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
+      <c r="A2" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1632,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1645,65 +1745,78 @@
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1713</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>1723</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4">
         <v>1813</v>
       </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5">
         <v>1823</v>
       </c>

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="98">
   <si>
     <t>A10137873</t>
   </si>
@@ -234,9 +234,6 @@
     <t>73.68</t>
   </si>
   <si>
-    <t>6.7f</t>
-  </si>
-  <si>
     <t>13010164</t>
   </si>
   <si>
@@ -270,12 +267,6 @@
     <t>Sherbrooke</t>
   </si>
   <si>
-    <t>1f</t>
-  </si>
-  <si>
-    <t>95.48</t>
-  </si>
-  <si>
     <t>AUTOMATION TRB SFA</t>
   </si>
   <si>
@@ -295,9 +286,6 @@
   </si>
   <si>
     <t>AutomationCKQ</t>
-  </si>
-  <si>
-    <t>84.87</t>
   </si>
   <si>
     <t>isFirstMaintenancetoEdit</t>
@@ -861,13 +849,13 @@
         <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>17</v>
@@ -891,10 +879,10 @@
         <v>59</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>5</v>
@@ -903,10 +891,10 @@
         <v>60</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>63</v>
@@ -915,10 +903,10 @@
         <v>64</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>36</v>
@@ -935,7 +923,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -971,7 +959,7 @@
         <v>58</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>54</v>
@@ -980,13 +968,13 @@
         <v>56</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T2" s="9">
         <v>0</v>
@@ -1016,28 +1004,28 @@
         <v>65</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>40</v>
@@ -1174,13 +1162,13 @@
         <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>17</v>
@@ -1230,7 +1218,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4">
         <v>1813</v>
@@ -1257,7 +1245,7 @@
         <v>13012004</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -1275,13 +1263,13 @@
         <v>56</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T2" s="9">
         <v>0</v>
@@ -1363,7 +1351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1462,13 +1452,13 @@
         <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>17</v>
@@ -1518,7 +1508,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -1539,7 +1529,7 @@
         <v>47</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="4">
         <v>2</v>
@@ -1554,7 +1544,7 @@
         <v>46</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>7</v>
@@ -1563,7 +1553,7 @@
         <v>58</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>54</v>
@@ -1572,13 +1562,13 @@
         <v>56</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="W2" s="9">
         <v>0</v>
@@ -1599,19 +1589,19 @@
         <v>65</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>40</v>
@@ -1627,7 +1617,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M2:N2 AF2:AG2 T2:V2" numberStoredAsText="1"/>
+    <ignoredError sqref="M2:N2 T2:V2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1694,7 +1684,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
@@ -1765,7 +1755,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1785,7 +1775,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">

--- a/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
+++ b/KTOC_TRB_TestMethods/src/com/KTOC/TRB/testautomation/TestData/KTOCTRB_AutomationTestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\con_svijay02\KTOC-TRB-Automation\KTOC_TRB_TestMethods\src\com\KTOC\TRB\testautomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D400268A-B8D7-4004-8721-42B61F3881AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="7" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
   <si>
     <t>A10137873</t>
   </si>
@@ -42,12 +43,6 @@
     <t>Supervisor</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>ITEfactor</t>
-  </si>
-  <si>
     <t>N194322</t>
   </si>
   <si>
@@ -81,21 +76,6 @@
     <t>TemplateName</t>
   </si>
   <si>
-    <t>withoutFirstMaintenance</t>
-  </si>
-  <si>
-    <t>withFirstMaintenance1</t>
-  </si>
-  <si>
-    <t>withFirstMaintenance2</t>
-  </si>
-  <si>
-    <t>TenderPrice</t>
-  </si>
-  <si>
-    <t>RegionalDiscount</t>
-  </si>
-  <si>
     <t>ios</t>
   </si>
   <si>
@@ -207,57 +187,18 @@
     <t>EIS Escalator</t>
   </si>
   <si>
-    <t>changeRegionalDiscount</t>
-  </si>
-  <si>
-    <t>changeITEfactor</t>
-  </si>
-  <si>
     <t>changeSupervisor</t>
   </si>
   <si>
     <t>06151495</t>
   </si>
   <si>
-    <t>LabourRate</t>
-  </si>
-  <si>
-    <t>changeLabourRate</t>
-  </si>
-  <si>
-    <t>0f</t>
-  </si>
-  <si>
-    <t>2.47f</t>
-  </si>
-  <si>
-    <t>73.68</t>
-  </si>
-  <si>
     <t>13010164</t>
   </si>
   <si>
     <t>07003009</t>
   </si>
   <si>
-    <t>RegionalDiscount_MultipleEqup</t>
-  </si>
-  <si>
-    <t>changeRegionalDiscount_MultipleEqup</t>
-  </si>
-  <si>
-    <t>ITEfactor_MultipleEqup</t>
-  </si>
-  <si>
-    <t>changeITEfactor_MultipleEqup</t>
-  </si>
-  <si>
-    <t>LabourRate_MultipleEqup</t>
-  </si>
-  <si>
-    <t>changeLabourRate__MultipleEqup</t>
-  </si>
-  <si>
     <t>s.vijay@kone.com.qap</t>
   </si>
   <si>
@@ -267,18 +208,9 @@
     <t>Sherbrooke</t>
   </si>
   <si>
-    <t>AUTOMATION TRB SFA</t>
-  </si>
-  <si>
     <t>AutomationSFA</t>
   </si>
   <si>
-    <t>0.92f</t>
-  </si>
-  <si>
-    <t>59.1</t>
-  </si>
-  <si>
     <t>AUTOMATION TRB CKQ</t>
   </si>
   <si>
@@ -322,12 +254,15 @@
   </si>
   <si>
     <t>135</t>
+  </si>
+  <si>
+    <t>AutomationKTOC SFA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,13 +361,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -750,10 +678,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -776,154 +704,86 @@
     <col min="17" max="17" width="18" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.453125" style="5" customWidth="1"/>
     <col min="19" max="19" width="26.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.6328125" style="10" customWidth="1"/>
-    <col min="23" max="23" width="6.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" style="5" customWidth="1"/>
-    <col min="34" max="34" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="5"/>
+    <col min="20" max="20" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -935,7 +795,7 @@
         <v>11234846</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
@@ -947,93 +807,42 @@
         <v>2</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="9">
-        <v>0</v>
-      </c>
-      <c r="U2" s="9">
-        <v>3</v>
-      </c>
-      <c r="V2" s="9">
-        <v>6</v>
-      </c>
-      <c r="W2" s="9">
-        <v>10</v>
-      </c>
-      <c r="X2" s="9">
-        <v>2001</v>
-      </c>
-      <c r="Y2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" s="3">
+      <c r="T2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1041,24 +850,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J2:K2 AG2:AJ2 Q2:S2" numberStoredAsText="1"/>
+    <ignoredError sqref="J2:K2 Q2:S2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'-na-'!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'-na-'!$D$2:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'-na-'!$E$2:$E$3</xm:f>
           </x14:formula1>
@@ -1071,10 +880,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1096,129 +905,86 @@
     <col min="17" max="17" width="18" style="5" customWidth="1"/>
     <col min="18" max="18" width="26.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.453125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7265625" style="5"/>
-    <col min="30" max="30" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.7265625" style="5"/>
+    <col min="20" max="20" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="C2" s="4">
         <v>1813</v>
@@ -1230,87 +996,54 @@
         <v>11234846</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J2" s="4">
         <v>13012004</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="R2" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="9">
-        <v>0</v>
-      </c>
-      <c r="U2" s="9">
-        <v>3</v>
-      </c>
-      <c r="V2" s="9">
-        <v>6</v>
-      </c>
-      <c r="W2" s="9">
-        <v>10</v>
-      </c>
-      <c r="X2" s="9">
-        <v>2001</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG2" s="3">
+        <v>69</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1318,24 +1051,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AC2:AD2 K2 Q2:S2" numberStoredAsText="1"/>
+    <ignoredError sqref="K2 Q2:S2" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'-na-'!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'-na-'!$D$2:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'-na-'!$C$2:$C$3</xm:f>
           </x14:formula1>
@@ -1348,12 +1081,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1377,138 +1108,95 @@
     <col min="20" max="20" width="18" style="5" customWidth="1"/>
     <col min="21" max="21" width="26.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26.453125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7265625" style="5"/>
-    <col min="33" max="33" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.7265625" style="5"/>
+    <col min="23" max="23" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C2" s="4">
         <v>1723</v>
@@ -1520,16 +1208,16 @@
         <v>20291427</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J2" s="4">
         <v>2</v>
@@ -1541,75 +1229,42 @@
         <v>1</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" s="9">
-        <v>0</v>
-      </c>
-      <c r="X2" s="9">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>2001</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="3">
+        <v>70</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1622,25 +1277,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'-na-'!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>'-na-'!$D$2:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>'-na-'!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>'-na-'!$F$2:$F$4</xm:f>
           </x14:formula1>
@@ -1653,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1670,30 +1325,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>76</v>
+      <c r="A2" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1702,13 +1357,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>'-na-'!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>'-na-'!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1721,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1740,62 +1395,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1713</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1723</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1803,7 +1458,7 @@
         <v>1813</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
